--- a/mapping_file_creator/test_user_template_for_mappingfile_creatorpy.xlsx
+++ b/mapping_file_creator/test_user_template_for_mappingfile_creatorpy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA54B79-952F-4E60-859F-84696A839B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7EA54B79-952F-4E60-859F-84696A839B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6718287D-AD9C-43B8-B0D3-C1E107A703E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E87429A6-9664-4425-8D48-E5D0FCAA54B2}"/>
   </bookViews>
@@ -189,15 +189,6 @@
     <t>V3 kit 2 x 300 bp</t>
   </si>
   <si>
-    <t>515F_Golay0241</t>
-  </si>
-  <si>
-    <t>515F_Golay0243</t>
-  </si>
-  <si>
-    <t>515F_Golay0245</t>
-  </si>
-  <si>
     <t>515F_Golay0247</t>
   </si>
   <si>
@@ -288,18 +279,6 @@
     <t>515F_Golay9041</t>
   </si>
   <si>
-    <t>926RBC_Golay0160</t>
-  </si>
-  <si>
-    <t>926RBC_Golay0162</t>
-  </si>
-  <si>
-    <t>926RBC_Golay0164</t>
-  </si>
-  <si>
-    <t>926RBC_Golay0166</t>
-  </si>
-  <si>
     <t>926RBC_Golay0168</t>
   </si>
   <si>
@@ -484,6 +463,27 @@
   </si>
   <si>
     <t>S33</t>
+  </si>
+  <si>
+    <t>515F_Golay241</t>
+  </si>
+  <si>
+    <t>515F_Golay243</t>
+  </si>
+  <si>
+    <t>515F_Golay245</t>
+  </si>
+  <si>
+    <t>926RBC_Golay160</t>
+  </si>
+  <si>
+    <t>926RBC_Golay162</t>
+  </si>
+  <si>
+    <t>926RBC_Golay164</t>
+  </si>
+  <si>
+    <t>926RBC_Golay166</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,365 +1975,365 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
